--- a/trunk/documents/technical analysis report/Torque vs Theta [Ibrahim].xlsx
+++ b/trunk/documents/technical analysis report/Torque vs Theta [Ibrahim].xlsx
@@ -134,8 +134,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17563972487628771"/>
           <c:y val="0.11948340280994288"/>
-          <c:w val="0.71157545931758526"/>
-          <c:h val="0.70802902578354177"/>
+          <c:w val="0.71157545931758548"/>
+          <c:h val="0.70802902578354188"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -221,7 +221,7 @@
                   <c:v>69.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68</c:v>
+                  <c:v>67.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>67</c:v>
@@ -233,7 +233,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63.999999999999986</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>63</c:v>
@@ -314,19 +314,19 @@
                   <c:v>37.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>36.999999999999993</c:v>
+                  <c:v>36.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>35.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>35.000000000000014</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>32.999999999999986</c:v>
+                  <c:v>33.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>31.999999999999993</c:v>
@@ -350,13 +350,13 @@
                   <c:v>25.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25.000000000000011</c:v>
+                  <c:v>24.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>24.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>23.000000000000007</c:v>
+                  <c:v>22.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>21.999999999999993</c:v>
@@ -365,13 +365,13 @@
                   <c:v>21.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19.999999999999979</c:v>
+                  <c:v>20.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>18.999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18.000000000000025</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>16.999999999999986</c:v>
@@ -386,7 +386,7 @@
                   <c:v>13.999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.000000000000018</c:v>
+                  <c:v>12.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>11.999999999999979</c:v>
@@ -395,10 +395,10 @@
                   <c:v>10.999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.000000000000052</c:v>
+                  <c:v>10.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.9999999999999361</c:v>
+                  <c:v>9.0000000000000249</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>7.9999999999999734</c:v>
@@ -419,7 +419,7 @@
                   <c:v>3.0000000000000422</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0000000000001301</c:v>
+                  <c:v>1.9999999999999392</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.99999999999989964</c:v>
@@ -500,7 +500,7 @@
                   <c:v>0.52733843775590916</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55123360221151452</c:v>
+                  <c:v>0.55123360221151518</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.57496085557196663</c:v>
@@ -512,7 +512,7 @@
                   <c:v>0.62188277215143928</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64506314250012808</c:v>
+                  <c:v>0.64506314250012753</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.66804702036674313</c:v>
@@ -599,13 +599,13 @@
                   <c:v>1.1904685072227355</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2053822331712514</c:v>
+                  <c:v>1.2053822331712516</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1.219928788014744</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2341037407316917</c:v>
+                  <c:v>1.2341037407316915</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1.247902773494181</c:v>
@@ -635,7 +635,7 @@
                   <c:v>1.3442821409210874</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3545228918552659</c:v>
+                  <c:v>1.3545228918552661</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>1.3643510419950278</c:v>
@@ -644,7 +644,7 @@
                   <c:v>1.3737635975906326</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3827576914864645</c:v>
+                  <c:v>1.3827576914864641</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1.3913305839943948</c:v>
@@ -674,10 +674,10 @@
                   <c:v>1.4444644004432377</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.449144608557464</c:v>
+                  <c:v>1.4491446085574642</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.4533833931857456</c:v>
+                  <c:v>1.4533833931857449</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.4571794631532209</c:v>
@@ -707,11 +707,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="93284224"/>
-        <c:axId val="93282688"/>
+        <c:axId val="100244480"/>
+        <c:axId val="100259328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93284224"/>
+        <c:axId val="100244480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,12 +736,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93282688"/>
+        <c:crossAx val="100259328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93282688"/>
+        <c:axId val="100259328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +767,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93284224"/>
+        <c:crossAx val="100244480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -776,7 +776,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1104,7 +1104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1120,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -1134,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1169,7 +1171,7 @@
       </c>
       <c r="B6">
         <f>$B$2*COS(PI()*(A6/180))</f>
-        <v>6.1257422745431001E-16</v>
+        <v>4.28801959218017E-16</v>
       </c>
       <c r="C6">
         <f>(ACOS(B6/$B$1))*(180/PI())</f>
@@ -1190,7 +1192,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B70" si="0">$B$2*COS(PI()*(A7/180))</f>
-        <v>0.17452406437283599</v>
+        <v>0.12216684506098519</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C70" si="1">(ACOS(B7/$B$1))*(180/PI())</f>
@@ -1211,7 +1213,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.34899496702501082</v>
+        <v>0.24429647691750755</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -1232,7 +1234,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.52335956242943971</v>
+        <v>0.36635169370060777</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -1253,7 +1255,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0.69756473744125236</v>
+        <v>0.48829531620887662</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -1274,7 +1276,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.8715574274765836</v>
+        <v>0.61009019923360852</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -1295,7 +1297,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1.0452846326765346</v>
+        <v>0.73169924287357424</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -1316,7 +1318,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1.2186934340514748</v>
+        <v>0.85308540383603249</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -1337,7 +1339,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1.3917310096006545</v>
+        <v>0.97421170672045831</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -1358,7 +1360,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1.5643446504023093</v>
+        <v>1.0950412552816164</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -1379,7 +1381,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1.7364817766693041</v>
+        <v>1.2155372436685128</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -1400,7 +1402,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1.9080899537654492</v>
+        <v>1.3356629676358145</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -1421,7 +1423,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>2.0791169081775922</v>
+        <v>1.4553818357243147</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -1442,7 +1444,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>2.2495105434386513</v>
+        <v>1.5746573804070561</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -1463,7 +1465,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>2.4192189559966768</v>
+        <v>1.6934532691976738</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -1484,7 +1486,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>2.5881904510252074</v>
+        <v>1.8117333157176452</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -1505,7 +1507,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>2.7563735581699915</v>
+        <v>1.9294614907189942</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -1526,7 +1528,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>2.9237170472273677</v>
+        <v>2.0466019330591574</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -1547,7 +1549,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>3.0901699437494745</v>
+        <v>2.1631189606246322</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -1568,7 +1570,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>3.2556815445715674</v>
+        <v>2.2789770812000971</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -1589,7 +1591,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3.4202014332566884</v>
+        <v>2.3941410032796817</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -1610,7 +1612,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3.5836794954530014</v>
+        <v>2.5085756468171012</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -1631,19 +1633,19 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>3.7460659341591218</v>
+        <v>2.6222461539113855</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>67.999999999999986</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>55.123360221151451</v>
+        <v>55.123360221151515</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>0.55123360221151452</v>
+        <v>0.55123360221151518</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1652,7 +1654,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>3.9073112848927369</v>
+        <v>2.7351178994249161</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -1673,7 +1675,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>4.0673664307580033</v>
+        <v>2.8471565015306028</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -1694,7 +1696,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>4.2261826174069945</v>
+        <v>2.9583278321848963</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -1715,19 +1717,19 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>4.3837114678907749</v>
+        <v>3.0685980275235423</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>63.999999999999986</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>64.506314250012807</v>
+        <v>64.50631425001275</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>0.64506314250012808</v>
+        <v>0.64506314250012753</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1736,7 +1738,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>4.5399049973954684</v>
+        <v>3.1779334981768277</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -1757,7 +1759,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>4.6947156278589084</v>
+        <v>3.2863009395012361</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -1778,7 +1780,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>4.8480962024633714</v>
+        <v>3.3936673417243597</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -1799,7 +1801,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>5.0000000000000009</v>
+        <v>3.5000000000000009</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -1820,7 +1822,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>5.1503807491005436</v>
+        <v>3.6052665243703808</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -1841,7 +1843,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>5.2991926423320486</v>
+        <v>3.7094348496324345</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -1862,7 +1864,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>5.4463903501502724</v>
+        <v>3.8124732451051901</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -1883,7 +1885,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>5.5919290347074675</v>
+        <v>3.9143503242952278</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -1904,7 +1906,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>5.7357643635104614</v>
+        <v>4.0150350544573232</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -1925,7 +1927,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>5.8778525229247318</v>
+        <v>4.1144967660473117</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -1946,7 +1948,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>6.018150231520484</v>
+        <v>4.2127051620643385</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -1967,7 +1969,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>6.1566147532565827</v>
+        <v>4.3096303272796082</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -1988,7 +1990,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>6.2932039104983755</v>
+        <v>4.4052427373488623</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -2009,7 +2011,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>6.4278760968653934</v>
+        <v>4.4995132678057752</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -2030,7 +2032,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>6.5605902899050736</v>
+        <v>4.5924132029335514</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -2051,7 +2053,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>6.6913060635885824</v>
+        <v>4.6839142445120077</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -2072,7 +2074,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>6.819983600624985</v>
+        <v>4.7739885204374897</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -2093,7 +2095,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>6.9465837045899734</v>
+        <v>4.8626085932129817</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -2114,7 +2116,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>7.0710678118654755</v>
+        <v>4.9497474683058327</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -2135,7 +2137,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>7.1933980033865117</v>
+        <v>5.0353786023705585</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -2156,7 +2158,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>7.3135370161917042</v>
+        <v>5.1194759113341934</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -2177,7 +2179,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>7.431448254773942</v>
+        <v>5.2020137783417599</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -2198,7 +2200,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>7.5470958022277204</v>
+        <v>5.282967061559404</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -2219,7 +2221,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>7.6604444311897799</v>
+        <v>5.3623111018328462</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -2240,7 +2242,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>7.771459614569709</v>
+        <v>5.4400217301987963</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -2261,7 +2263,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>7.8801075360672188</v>
+        <v>5.5160752752470534</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -2282,11 +2284,11 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>7.9863551004729283</v>
+        <v>5.5904485703310502</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>36.999999999999993</v>
+        <v>36.999999999999986</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
@@ -2303,7 +2305,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>8.0901699437494745</v>
+        <v>5.6631189606246322</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -2324,19 +2326,19 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>8.1915204428899173</v>
+        <v>5.7340643100229425</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>35.000000000000014</v>
+        <v>35</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>120.53822331712514</v>
+        <v>120.53822331712516</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
-        <v>1.2053822331712514</v>
+        <v>1.2053822331712516</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2345,7 +2347,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>8.2903757255504171</v>
+        <v>5.8032630078852918</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -2366,19 +2368,19 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>8.3867056794542414</v>
+        <v>5.8706939756179679</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>32.999999999999986</v>
+        <v>33.000000000000014</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>123.41037407316917</v>
+        <v>123.41037407316914</v>
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
-        <v>1.2341037407316917</v>
+        <v>1.2341037407316915</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2387,7 +2389,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>8.4804809615642593</v>
+        <v>5.9363366730949814</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -2408,7 +2410,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>8.5716730070211238</v>
+        <v>6.0001711049147861</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -2429,7 +2431,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>8.6602540378443873</v>
+        <v>6.0621778264910713</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -2450,7 +2452,7 @@
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>8.7461970713939579</v>
+        <v>6.12233794997577</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -2471,7 +2473,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="0"/>
-        <v>8.8294759285892699</v>
+        <v>6.1806331500124889</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -2492,7 +2494,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="0"/>
-        <v>8.9100652418836788</v>
+        <v>6.237045669318575</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
@@ -2513,7 +2515,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="0"/>
-        <v>8.9879404629916699</v>
+        <v>6.2915583240941695</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
@@ -2534,11 +2536,11 @@
       </c>
       <c r="B71">
         <f t="shared" ref="B71:B95" si="4">$B$2*COS(PI()*(A71/180))</f>
-        <v>9.0630778703664987</v>
+        <v>6.3441545092565494</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C95" si="5">(ACOS(B71/$B$1))*(180/PI())</f>
-        <v>25.000000000000011</v>
+        <v>24.999999999999996</v>
       </c>
       <c r="E71">
         <f t="shared" ref="E71:E95" si="6">($B$3*COS(PI()*C71/180))*9.81</f>
@@ -2555,7 +2557,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="4"/>
-        <v>9.1354545764260084</v>
+        <v>6.3948182034982057</v>
       </c>
       <c r="C72">
         <f t="shared" si="5"/>
@@ -2576,19 +2578,19 @@
       </c>
       <c r="B73">
         <f t="shared" si="4"/>
-        <v>9.2050485345244031</v>
+        <v>6.4435339741670825</v>
       </c>
       <c r="C73">
         <f t="shared" si="5"/>
-        <v>23.000000000000007</v>
+        <v>22.999999999999993</v>
       </c>
       <c r="E73">
         <f t="shared" si="6"/>
-        <v>135.45228918552658</v>
+        <v>135.45228918552661</v>
       </c>
       <c r="F73">
         <f t="shared" si="7"/>
-        <v>1.3545228918552659</v>
+        <v>1.3545228918552661</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2597,7 +2599,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="4"/>
-        <v>9.2718385456678742</v>
+        <v>6.490286981967512</v>
       </c>
       <c r="C74">
         <f t="shared" si="5"/>
@@ -2618,7 +2620,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="4"/>
-        <v>9.3358042649720172</v>
+        <v>6.5350629854804119</v>
       </c>
       <c r="C75">
         <f t="shared" si="5"/>
@@ -2639,19 +2641,19 @@
       </c>
       <c r="B76">
         <f t="shared" si="4"/>
-        <v>9.3969262078590852</v>
+        <v>6.5778483455013586</v>
       </c>
       <c r="C76">
         <f t="shared" si="5"/>
-        <v>19.999999999999979</v>
+        <v>20.000000000000014</v>
       </c>
       <c r="E76">
         <f t="shared" si="6"/>
-        <v>138.27576914864645</v>
+        <v>138.27576914864642</v>
       </c>
       <c r="F76">
         <f t="shared" si="7"/>
-        <v>1.3827576914864645</v>
+        <v>1.3827576914864641</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2660,7 +2662,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="4"/>
-        <v>9.4551857559931687</v>
+        <v>6.6186300291952183</v>
       </c>
       <c r="C77">
         <f t="shared" si="5"/>
@@ -2681,11 +2683,11 @@
       </c>
       <c r="B78">
         <f t="shared" si="4"/>
-        <v>9.5105651629515346</v>
+        <v>6.6573956140660746</v>
       </c>
       <c r="C78">
         <f t="shared" si="5"/>
-        <v>18.000000000000025</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <f t="shared" si="6"/>
@@ -2702,7 +2704,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="4"/>
-        <v>9.5630475596303555</v>
+        <v>6.6941332917412488</v>
       </c>
       <c r="C79">
         <f t="shared" si="5"/>
@@ -2723,7 +2725,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="4"/>
-        <v>9.6126169593831889</v>
+        <v>6.7288318715682323</v>
       </c>
       <c r="C80">
         <f t="shared" si="5"/>
@@ -2744,7 +2746,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="4"/>
-        <v>9.6592582628906829</v>
+        <v>6.7614807840234779</v>
       </c>
       <c r="C81">
         <f t="shared" si="5"/>
@@ -2765,7 +2767,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="4"/>
-        <v>9.7029572627599645</v>
+        <v>6.792070083931975</v>
       </c>
       <c r="C82">
         <f t="shared" si="5"/>
@@ -2786,11 +2788,11 @@
       </c>
       <c r="B83">
         <f t="shared" si="4"/>
-        <v>9.7437006478523518</v>
+        <v>6.8205904534966466</v>
       </c>
       <c r="C83">
         <f t="shared" si="5"/>
-        <v>13.000000000000018</v>
+        <v>12.999999999999993</v>
       </c>
       <c r="E83">
         <f t="shared" si="6"/>
@@ -2807,7 +2809,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="4"/>
-        <v>9.7814760073380569</v>
+        <v>6.8470332051366398</v>
       </c>
       <c r="C84">
         <f t="shared" si="5"/>
@@ -2828,7 +2830,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="4"/>
-        <v>9.8162718344766393</v>
+        <v>6.8713902841336481</v>
       </c>
       <c r="C85">
         <f t="shared" si="5"/>
@@ -2849,19 +2851,19 @@
       </c>
       <c r="B86">
         <f t="shared" si="4"/>
-        <v>9.8480775301220795</v>
+        <v>6.893654271085456</v>
       </c>
       <c r="C86">
         <f t="shared" si="5"/>
-        <v>10.000000000000052</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="E86">
         <f t="shared" si="6"/>
-        <v>144.9144608557464</v>
+        <v>144.91446085574643</v>
       </c>
       <c r="F86">
         <f t="shared" si="7"/>
-        <v>1.449144608557464</v>
+        <v>1.4491446085574642</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2870,19 +2872,19 @@
       </c>
       <c r="B87">
         <f t="shared" si="4"/>
-        <v>9.8768834059513786</v>
+        <v>6.9138183841659639</v>
       </c>
       <c r="C87">
         <f t="shared" si="5"/>
-        <v>8.9999999999999361</v>
+        <v>9.0000000000000249</v>
       </c>
       <c r="E87">
         <f t="shared" si="6"/>
-        <v>145.33833931857455</v>
+        <v>145.3383393185745</v>
       </c>
       <c r="F87">
         <f t="shared" si="7"/>
-        <v>1.4533833931857456</v>
+        <v>1.4533833931857449</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2891,7 +2893,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="4"/>
-        <v>9.9026806874157032</v>
+        <v>6.9318764811909928</v>
       </c>
       <c r="C88">
         <f t="shared" si="5"/>
@@ -2912,7 +2914,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="4"/>
-        <v>9.9254615164132201</v>
+        <v>6.9478230614892542</v>
       </c>
       <c r="C89">
         <f t="shared" si="5"/>
@@ -2933,7 +2935,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="4"/>
-        <v>9.9452189536827333</v>
+        <v>6.9616532675779128</v>
       </c>
       <c r="C90">
         <f t="shared" si="5"/>
@@ -2954,7 +2956,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="4"/>
-        <v>9.961946980917455</v>
+        <v>6.973362886642219</v>
       </c>
       <c r="C91">
         <f t="shared" si="5"/>
@@ -2975,7 +2977,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="4"/>
-        <v>9.9756405025982424</v>
+        <v>6.9829483518187692</v>
       </c>
       <c r="C92">
         <f t="shared" si="5"/>
@@ -2996,7 +2998,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="4"/>
-        <v>9.9862953475457381</v>
+        <v>6.9904067432820165</v>
       </c>
       <c r="C93">
         <f t="shared" si="5"/>
@@ -3017,11 +3019,11 @@
       </c>
       <c r="B94">
         <f t="shared" si="4"/>
-        <v>9.993908270190957</v>
+        <v>6.9957357891336702</v>
       </c>
       <c r="C94">
         <f t="shared" si="5"/>
-        <v>2.0000000000001301</v>
+        <v>1.9999999999999392</v>
       </c>
       <c r="E94">
         <f t="shared" si="6"/>
@@ -3038,7 +3040,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="4"/>
-        <v>9.9984769515639123</v>
+        <v>6.9989338660947391</v>
       </c>
       <c r="C95">
         <f t="shared" si="5"/>
